--- a/Dhruv-annotations/QADA_Q3_2018.xlsx
+++ b/Dhruv-annotations/QADA_Q3_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D713E94-604F-3A48-824F-F5042C22E260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F9F5C5-7277-8D44-A1A6-03F7C98F2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>asker</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Bhavanmit Suri:</t>
-  </si>
-  <si>
-    <t>Well, most of our licenses definitely come from existing customers who are expanding the use of our product, maybe going into factories and other parts of the world where they haven't been in. And we expect -- as the manufacturing economy is strong, we expect that to pretty much continue, although 60% of our funnel is cloud, so we expect to continue to have strong bookings on the cloud. Next year, as we look forward, we can't see anything that's necessarily going to slowdown the manufacturing economy. Having said that though, something happens at the stock market, that could definitely start affecting our customers' customers and then our customers; so we're always on the watch for that.</t>
   </si>
   <si>
     <t>Daniel Lender:</t>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="264" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,25 +547,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -579,13 +579,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -611,16 +611,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -643,19 +643,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -672,22 +672,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -704,16 +704,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -725,44 +725,12 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>1</v>
       </c>
     </row>
